--- a/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_36.xlsx
+++ b/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_36.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>KOSPI_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>KOSPI_CNY/USD</t>
   </si>
   <si>
-    <t>KOSPI_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>KOSPI_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>KOSPI_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>KOSPI_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OECD 소비자물가</t>
   </si>
   <si>
-    <t>KOSPI_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>KOSPI_두바이유가</t>
   </si>
   <si>
-    <t>KOSPI_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>KOSPI_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>KOSPI_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>KOSPI_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>KOSPI_미국 REER</t>
   </si>
   <si>
-    <t>KOSPI_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>KOSPI_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>KOSPI_발틱 해운임지수</t>
   </si>
   <si>
-    <t>KOSPI_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>KOSPI_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>KOSPI_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>KOSPI_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>KOSPI_유로존 Core CPI</t>
   </si>
   <si>
-    <t>KOSPI_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>KOSPI_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>KOSPI_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>KOSPI_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>KOSPI_일본 ESI</t>
   </si>
   <si>
-    <t>KOSPI_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 REER</t>
   </si>
   <si>
-    <t>KOSPI_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>KOSPI_중국 M1 YoY</t>
   </si>
   <si>
-    <t>KOSPI_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>KOSPI_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>KOSPI_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,58 +2657,58 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
       <c r="R3" t="n">
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2945,214 +2720,214 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
       <c r="BI3" t="n">
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL3" t="n">
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
         <v>2</v>
       </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -3161,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="n">
         <v>3</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,34 +2963,34 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
         <v>3</v>
@@ -3224,82 +2999,82 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
         <v>2</v>
       </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>3</v>
@@ -3308,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EQ3" t="n">
         <v>1</v>
@@ -3317,28 +3092,28 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EY3" t="n">
         <v>3</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>3</v>
@@ -3350,19 +3125,19 @@
         <v>3</v>
       </c>
       <c r="FD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
         <v>3</v>
@@ -3371,34 +3146,34 @@
         <v>0</v>
       </c>
       <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
         <v>2</v>
       </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
       <c r="FS3" t="n">
         <v>3</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
@@ -3410,49 +3185,49 @@
         <v>3</v>
       </c>
       <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="GA3" t="n">
         <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
         <v>0</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GJ3" t="n">
         <v>3</v>
       </c>
       <c r="GK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GM3" t="n">
         <v>3</v>
@@ -3464,55 +3239,55 @@
         <v>3</v>
       </c>
       <c r="GP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
       <c r="GU3" t="n">
         <v>3</v>
       </c>
       <c r="GV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
         <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
         <v>3</v>
@@ -3521,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3533,74 +3308,74 @@
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
         <v>1</v>
       </c>
       <c r="HP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HQ3" t="n">
         <v>2</v>
       </c>
       <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2</v>
       </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
       <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>2</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
         <v>3</v>
       </c>
@@ -3608,13 +3383,13 @@
         <v>3</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8781382325685338</v>
+        <v>-0.8856855628376763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7733398851487878</v>
+        <v>0.8786737466646616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8931741433909792</v>
+        <v>0.8558189555771757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7037515392019705</v>
+        <v>0.7701053408996436</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6641017572212855</v>
+        <v>0.6586136421259059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5154232192789358</v>
+        <v>0.3064277702744367</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9451625920114752</v>
+        <v>0.8873796207134714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9051999035231547</v>
+        <v>0.8805691665654558</v>
       </c>
       <c r="J4" t="n">
-        <v>0.894547571372406</v>
+        <v>0.3640015002817222</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8970906270368565</v>
+        <v>0.4665195984228651</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8327098476500676</v>
+        <v>-0.6966398943921074</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8278953900119526</v>
+        <v>0.9275522904484005</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8202359858027113</v>
+        <v>-0.8406468158075485</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8851645008344201</v>
+        <v>0.8893797867320834</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2056691136846012</v>
+        <v>0.8260416184588824</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5102448449120334</v>
+        <v>0.8211643309350656</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7928644354916596</v>
+        <v>0.5697955543682245</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8565735621419189</v>
+        <v>0.6018256582044134</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8075623131344224</v>
+        <v>-0.5194718142259833</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8662538438990131</v>
+        <v>0.8732522408554882</v>
       </c>
       <c r="V4" t="n">
-        <v>0.805633908555739</v>
+        <v>0.5092525196528342</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6938162040348006</v>
+        <v>0.8763374305793576</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5067487068233184</v>
+        <v>0.802481342478232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4526177563369758</v>
+        <v>-0.1320267938073884</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6342723639439031</v>
+        <v>0.8592171972321204</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8553949109608341</v>
+        <v>0.575304983466644</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3614029844213011</v>
+        <v>0.9080670059271441</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8625692046142128</v>
+        <v>0.6282615720528871</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7856736820850182</v>
+        <v>0.925000645296963</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.09763770397096404</v>
+        <v>0.668754241467228</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8474901008406831</v>
+        <v>0.5111043582199027</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5196143873190374</v>
+        <v>0.5166807898732855</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8907641637095095</v>
+        <v>-0.3104115340329905</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5347887746729911</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9181861699245863</v>
+        <v>-0.2038395412484712</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.635550175154347</v>
+        <v>0.9664251674706776</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3850795278315682</v>
+        <v>-0.1845261118338641</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.3901626694246004</v>
+        <v>-0.4089801321922346</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2674113566920066</v>
+        <v>-0.7721650092411466</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.9196487853754713</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3323921343609616</v>
+        <v>0.1201589123433217</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9028659452496651</v>
+        <v>-0.8334208598996929</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.303930855307578</v>
+        <v>-0.7026018582208645</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.2251592485351789</v>
+        <v>0.97500394747428</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.6861933725182092</v>
+        <v>0.9556947362174071</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9042065086183534</v>
+        <v>0.9448469513713302</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09825373884026335</v>
+        <v>0.9561715217521055</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7757621873867164</v>
+        <v>0.9681399993503998</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6474142466186844</v>
+        <v>0.9696662434790471</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9666270007404066</v>
+        <v>0.9499454529385936</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9688663248579233</v>
+        <v>0.9371219870503988</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9629017939658453</v>
+        <v>0.9625007676315779</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.912273368157213</v>
+        <v>0.8639369776933423</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9436727361017838</v>
+        <v>0.8120609893971127</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9650791844916609</v>
+        <v>0.7254127761579954</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9678902618247122</v>
+        <v>0.04588162886921234</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9577976274020222</v>
+        <v>0.9147221051824184</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9189657399692173</v>
+        <v>0.251668022097487</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8094734703918692</v>
+        <v>0.8032549865453795</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.88080703381642</v>
+        <v>-0.04701856923421195</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.5951507145435931</v>
+        <v>0.817543629599464</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1281026372675531</v>
+        <v>0.8279926776578915</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1979432146030358</v>
+        <v>0.4531936235125953</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9322723291017534</v>
+        <v>-0.4793250607725318</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.884407031206015</v>
+        <v>0.9258736083451694</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.8573993505535243</v>
+        <v>0.785314156667212</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3175385404615536</v>
+        <v>0.9181369084966121</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7675485561656976</v>
+        <v>0.591937881250045</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.04923719410292511</v>
+        <v>0.9125768016589637</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.7945855606393165</v>
+        <v>0.8581731700026272</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8513460018721415</v>
+        <v>0.3551639920327885</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.4161634616438812</v>
+        <v>0.8696505561655691</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3978000257373998</v>
+        <v>0.7948217174481655</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9426811863667878</v>
+        <v>0.8329146760701913</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9420250335901803</v>
+        <v>-0.7847295767814328</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9356350433589952</v>
+        <v>-0.2290453517564647</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.723255859211459</v>
+        <v>0.4814052923512455</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.957860009797308</v>
+        <v>0.8668794881471665</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8274871347191113</v>
+        <v>0.8086741067121088</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.382084152852764</v>
+        <v>0.697157676744908</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8850031559082198</v>
+        <v>0.2338658775404362</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6881437059345993</v>
+        <v>0.6712470144387452</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7835041409908624</v>
+        <v>0.8149941919376357</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8323775602668521</v>
+        <v>-0.5162002423563268</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.3739076830822554</v>
+        <v>0.7159801288055222</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.373193926519074</v>
+        <v>0.1609182980891682</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.7974332963318009</v>
+        <v>-0.2745655195734759</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8419933875045886</v>
+        <v>0.128749619861188</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.539022339025804</v>
+        <v>0.1272042880427908</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.2690750726411387</v>
+        <v>0.3569879578414245</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6910202743664348</v>
+        <v>0.9064341481639084</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7955496924985662</v>
+        <v>-0.5855935414343957</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6268281235754496</v>
+        <v>0.7178803683088344</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.6366475897789683</v>
+        <v>0.8975723865567731</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.1956206252515164</v>
+        <v>-0.4409750396630259</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1925657058074365</v>
+        <v>0.9154410404925359</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.1964002297793286</v>
+        <v>0.5910313511295228</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1581809393374275</v>
+        <v>0.8859314571365695</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.3733327275432445</v>
+        <v>0.8964938533506271</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.8419686572129099</v>
+        <v>0.8578156015226778</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3573623408812709</v>
+        <v>0.8304935492207183</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.5046315144951339</v>
+        <v>-0.69377445182317</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.8662911711000999</v>
+        <v>0.7627107537866935</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.2805662437776572</v>
+        <v>0.4062526689474807</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.8833407796259878</v>
+        <v>0.9302938439166147</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5584484022200471</v>
+        <v>-0.6205749058562222</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8484250434476887</v>
+        <v>0.6651619599899212</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8610576064201757</v>
+        <v>0.7402479673045353</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.841670509164098</v>
+        <v>0.1903417268465881</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.8584276587151182</v>
+        <v>0.7746014647395565</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6630292014290293</v>
+        <v>-0.1550985811867389</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.6902959016564216</v>
+        <v>0.7983146561883276</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3144889448806982</v>
+        <v>-0.5769231101013413</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9167279611468964</v>
+        <v>0.4241271176501374</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6287479764728207</v>
+        <v>0.258687868764126</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.695921160916693</v>
+        <v>-0.7788754966402391</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.6887998898759425</v>
+        <v>0.790732184075909</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1324763690629721</v>
+        <v>0.3566957849126864</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.693972295393734</v>
+        <v>-0.4307097675188561</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8070801828239567</v>
+        <v>0.9064341481639084</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.848908729205374</v>
+        <v>0.8944116603533659</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2596124348109281</v>
+        <v>0.8695075705111521</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7312141330760931</v>
+        <v>0.6797812589844101</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6510670971760256</v>
+        <v>0.8214214308300931</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3673828432042716</v>
+        <v>0.3752193371022158</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2261008250544404</v>
+        <v>0.8355096724729981</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.732094571139684</v>
+        <v>-0.9114065231926441</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7069479251675895</v>
+        <v>0.9197216643677442</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.5393870565742621</v>
+        <v>0.8005888001750732</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2665109687307169</v>
+        <v>0.9520973016488987</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.4219650435772459</v>
+        <v>0.8894210073116388</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.7945997065194842</v>
+        <v>0.5774550314268083</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.8419686572129099</v>
+        <v>-0.7288642760634808</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9165470144732345</v>
+        <v>0.3653985423866797</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.7728139870730447</v>
+        <v>-0.188650764907125</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6217054962423774</v>
+        <v>0.7435883693694252</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8527192652597507</v>
+        <v>0.9185889416385877</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2603350906443715</v>
+        <v>-0.1981734790440834</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8854216089941696</v>
+        <v>0.8532075413937472</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.901281646860696</v>
+        <v>0.9282375720748275</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9519645233518158</v>
+        <v>0.8822563461582323</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7075833250777143</v>
+        <v>0.8461845790680811</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9638662952742625</v>
+        <v>0.87433581689786</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9029286250755392</v>
+        <v>-0.9001797521419929</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5666754770759215</v>
+        <v>0.8859281987785842</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.6907981499687476</v>
+        <v>0.2715148994520968</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.2133440870249536</v>
+        <v>0.6302102059102701</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2242963900939566</v>
+        <v>-0.8406288172288838</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7332860267356651</v>
+        <v>-0.8214571831283904</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9191260137625025</v>
+        <v>-0.8794899053442017</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.31396969979277</v>
+        <v>0.7290652216877479</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.840702845182699</v>
+        <v>0.7783250928246473</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9302093697050351</v>
+        <v>0.765676659695474</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8756726415483813</v>
+        <v>0.6640424254518978</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8015004402650363</v>
+        <v>0.3898727933695149</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8891676861642628</v>
+        <v>-0.1707077847529781</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9077670539498043</v>
+        <v>-0.3314968789561998</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9226986379345744</v>
+        <v>0.4665195984228651</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2358443352324962</v>
+        <v>0.8646344843864799</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.4456762812909355</v>
+        <v>0.3297788883281048</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8215097685293936</v>
+        <v>0.6027212600906025</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8523993771034418</v>
+        <v>-0.1886021871887561</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8712483982384118</v>
+        <v>0.885391906828826</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.6794719049032897</v>
+        <v>-0.467639492848739</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.6876344794115881</v>
+        <v>-0.1959889463262585</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7496479317137782</v>
+        <v>-0.48706432589382</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9076268709384399</v>
+        <v>-0.06442126449675563</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6338491345885021</v>
+        <v>0.9338398367595619</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.1688149587487719</v>
+        <v>0.602511555532671</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.2047295000141074</v>
+        <v>-0.3064215944078909</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.1829691754779858</v>
+        <v>-0.7555591155968242</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5102448449120334</v>
+        <v>0.8308925647131921</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8720396159548017</v>
+        <v>0.4363813067756401</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.1880135448807163</v>
+        <v>0.3942506663801497</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.6512125996175409</v>
+        <v>0.7696938958082217</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.1597262810376233</v>
+        <v>0.9338398367595619</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8402625386960251</v>
+        <v>0.8446481861296985</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4039218996353173</v>
+        <v>-0.2324036967710236</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1360095243573754</v>
+        <v>0.7319836297652575</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.3420988883917063</v>
+        <v>-0.7712782200844426</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6805230912268073</v>
+        <v>-0.2001960382110451</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4382648922037565</v>
+        <v>-0.2665164885135651</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0577567480636921</v>
+        <v>0.7966043027693314</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9314775599816613</v>
+        <v>0.6637597592597937</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.4596263273032746</v>
+        <v>0.5335062237951427</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2373069845011405</v>
+        <v>0.9241445991073814</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.658295968521158</v>
+        <v>0.8451094166675325</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8929594826502262</v>
+        <v>0.1904873898076868</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4148328486904654</v>
+        <v>0.8429857527983898</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.844473483384523</v>
+        <v>-0.7899742405529364</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.591889615552155</v>
+        <v>-0.3611235510495873</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.6820320479895059</v>
+        <v>-0.1088733708380544</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9314775599816613</v>
+        <v>0.5332303374101651</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.3324697470611958</v>
+        <v>0.8844620295383694</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.872141635820989</v>
+        <v>0.9149870196492432</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.2740307589094078</v>
+        <v>-0.6665060845453435</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7042490961649382</v>
+        <v>-0.7073770942775691</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.5909077089754486</v>
+        <v>-0.3611235510495869</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.09283604863305164</v>
+        <v>-0.3611235510495869</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.4701268418547196</v>
+        <v>0.8402015268305884</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.1303022458981507</v>
+        <v>0.7025210652651565</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6953709827004206</v>
+        <v>-0.3611235510495873</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8077865777996083</v>
+        <v>0.2127089127976567</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5034937998334257</v>
+        <v>0.2973305150604578</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4415865708141733</v>
+        <v>0.606459467832879</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9219559889104326</v>
+        <v>0.7900505766896596</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8385600260591126</v>
+        <v>-0.6434422325350874</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2046514104490889</v>
+        <v>0.8979467844692484</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8522321429318407</v>
+        <v>0.6851129376981255</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7477994255775507</v>
+        <v>-0.4815336168139113</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2480591204640173</v>
+        <v>-0.6567122280309324</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2230851402614348</v>
+        <v>0.4295606586722017</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.5038441426893924</v>
+        <v>-0.173941092311976</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.7997668678159745</v>
+        <v>0.3377731791898887</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.767707044210614</v>
+        <v>0.9233898665610281</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9069144249572814</v>
+        <v>-0.787271299162269</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.732455537690676</v>
+        <v>0.377208420912397</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.6959057962636407</v>
+        <v>-0.3804709626995623</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2480591204640171</v>
+        <v>0.8406385568674173</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2480591204640171</v>
+        <v>0.6955437324652313</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8011363763538246</v>
+        <v>-0.08772156854137397</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.6970580939777661</v>
+        <v>-0.1814192780324629</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2480591204640173</v>
+        <v>-0.3630913425966528</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1820291150564748</v>
+        <v>-0.1719453690416221</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3313436884172286</v>
+        <v>-0.7951914492262925</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5645738175656344</v>
+        <v>0.8873051182451209</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.8419359920411199</v>
+        <v>-0.3792059433857978</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5639692237501971</v>
+        <v>0.6491589471956103</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8714908002172624</v>
+        <v>0.5410970082449642</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8626737940617027</v>
+        <v>0.8796917236980716</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8363709300849945</v>
+        <v>0.8499023735081335</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.1293526718783588</v>
+        <v>0.7176389874292457</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.900264426764378</v>
+        <v>-0.2921902087156178</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6094765822222449</v>
+        <v>-0.5402831944442585</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4621576368685293</v>
+        <v>-0.2469004893045925</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5886967081947062</v>
+        <v>-0.2321157508392173</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5523790117624001</v>
+        <v>-0.8103253278588357</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.06032415391992672</v>
+        <v>0.8343935262172197</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4524985066145099</v>
+        <v>0.1321811062473263</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.8598021833004474</v>
+        <v>-0.8747051384955886</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7689094820522149</v>
+        <v>-0.5847937254517637</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4548523424057014</v>
+        <v>0.8343935262172197</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4074107021311473</v>
+        <v>0.7974413103652743</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.3521732691552726</v>
+        <v>-0.5026466792285318</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6620211226401574</v>
+        <v>0.2743187057128609</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.142814448915254</v>
+        <v>-0.1947824967608157</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.06475828269632211</v>
+        <v>-0.4609609571714871</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.2590803314742406</v>
+        <v>0.9091513935560727</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1615597561949165</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7750223486517317</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.7699344825617532</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4507059197630208</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6745977616125729</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5445251350530091</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8560703625339144</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8639107909428436</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7964493404208016</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3139304254067878</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5352662291236163</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1262948481747644</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.2962935760839084</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7966944452828082</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8206892944313006</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2123837982770681</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.9165028315310971</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5376095223283198</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8206892944313006</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8252411537416717</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5163033677777079</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3242315434178346</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3374375820562727</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3671446494522735</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.6093270615944585</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.3944113418479789</v>
+        <v>0.7898060908365365</v>
       </c>
     </row>
   </sheetData>
